--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roodaba\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roodaba\Desktop\climate\Climate-Change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA990091-058E-4304-8099-6F24BC258A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A3A867-D3C9-464C-93BD-E7DF3737E73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BCE07C4F-F1D8-4170-BD98-3417A5C11105}"/>
+    <workbookView xWindow="7065" yWindow="330" windowWidth="17520" windowHeight="14910" xr2:uid="{BCE07C4F-F1D8-4170-BD98-3417A5C11105}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">CLIMATE CHANGE </t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>CO2 per capita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate Change data has shown the population growth in percentagesm, life expectency, CO2 emmision(kt) and CO2 per capita. </t>
+  </si>
+  <si>
+    <t>This data have shown dicrease in CO2 emission(kt) and CO2 emission per capita and increase in life expectancy</t>
   </si>
 </sst>
 </file>
@@ -137,6 +143,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -144,12 +156,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2320,10 +2326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF68490-9B77-4AF6-A373-7A0431AAF277}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,19 +2338,19 @@
     <col min="2" max="2" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="7"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2360,10 +2366,39 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A7:H7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2373,7 +2408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD0FB8D8-1BD2-448A-BDCF-3C013A69DC43}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -2391,355 +2426,355 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="4">
         <v>2000</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
         <v>1.42</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>79.13</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>571.51</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="4">
         <v>17.41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="4">
         <v>2001</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="4">
         <v>1.08</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>79.33</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>564.23</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>17.010000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="4">
         <v>2002</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="4">
         <v>1.08</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>79.489999999999995</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>570.22</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="4">
         <v>16.559999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="4">
         <v>2003</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="4">
         <v>0.9</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>79.739999999999995</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>587.49</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="4">
         <v>17.47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="4">
         <v>2004</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>0.93</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>79.89</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>586.47</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="4">
         <v>17.32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="4">
         <v>2005</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>0.94</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>80.19</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>576.86</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="4">
         <v>17.41</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="4">
         <v>2006</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>1.01</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>80.34</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>570.80999999999995</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="4">
         <v>17.559999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="4">
         <v>2007</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>0.97</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>80.540000000000006</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>594.73</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="4">
         <v>17.38</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="4">
         <v>2008</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>1.08</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>80.69</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>575.45000000000005</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="4">
         <v>16.89</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="4">
         <v>2009</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="4">
         <v>80.989999999999995</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>543.07000000000005</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="4">
         <v>16.09</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="4">
         <v>2010</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="4">
         <v>81.239999999999995</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>556.41999999999996</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <v>16.29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="4">
         <v>2011</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>0.97</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="4">
         <v>81.44</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>566.66999999999996</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="4">
         <v>16.41</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="4">
         <v>2012</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="4">
         <v>1.08</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>81.64</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>570.16</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="4">
         <v>16.329999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+      <c r="A16" s="4">
         <v>2013</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="4">
         <v>1.05</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>81.739999999999995</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>577.35</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="4">
         <v>16.36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+      <c r="A17" s="4">
         <v>2014</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="4">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="4">
         <v>81.8</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>577.36</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="4">
         <v>16.190000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
+      <c r="A18" s="4">
         <v>2015</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="4">
         <v>0.74</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="4">
         <v>81.900000000000006</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>576.76</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="4">
         <v>16.010000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
+      <c r="A19" s="4">
         <v>2016</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="4">
         <v>1.1299999999999999</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="4">
         <v>81.900000000000006</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>564.07000000000005</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="4">
         <v>15.5</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
+      <c r="A20" s="4">
         <v>2017</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="4">
         <v>1.19</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="4">
         <v>81.94</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>571.14</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="4">
         <v>15.55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
+      <c r="A21" s="4">
         <v>2018</v>
       </c>
-      <c r="B21" s="7">
+      <c r="B21" s="4">
         <v>1.39</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="4">
         <v>81.94</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>568.41</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="4">
         <v>15.56</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roodaba\Desktop\climate\Climate-Change\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A3A867-D3C9-464C-93BD-E7DF3737E73E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C9DBBC-07B9-46CA-9816-D780F26EA029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7065" yWindow="330" windowWidth="17520" windowHeight="14910" xr2:uid="{BCE07C4F-F1D8-4170-BD98-3417A5C11105}"/>
+    <workbookView xWindow="7065" yWindow="330" windowWidth="17520" windowHeight="14910" activeTab="2" xr2:uid="{BCE07C4F-F1D8-4170-BD98-3417A5C11105}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">CLIMATE CHANGE </t>
   </si>
@@ -61,9 +61,6 @@
     <t>CLIMATE CHANGE - CANADA</t>
   </si>
   <si>
-    <t>Life expectency</t>
-  </si>
-  <si>
     <t>Population growth %</t>
   </si>
   <si>
@@ -73,17 +70,29 @@
     <t>CO2 per capita</t>
   </si>
   <si>
-    <t xml:space="preserve">The Climate Change data has shown the population growth in percentagesm, life expectency, CO2 emmision(kt) and CO2 per capita. </t>
+    <t>Year</t>
   </si>
   <si>
-    <t>This data have shown dicrease in CO2 emission(kt) and CO2 emission per capita and increase in life expectancy</t>
+    <t>Significant dicrease in CO2 emmision per capita and increase in life expectancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Climate Change data has shown the population growth in percentages, life expectancy, CO2 emmision(kt) and CO2 per capita. </t>
+  </si>
+  <si>
+    <t>This data has shown dicrease in CO2 emission(kt) and CO2 emission per capita and increase in life expectancy in the past 18 years.</t>
+  </si>
+  <si>
+    <t>Life expectancy</t>
+  </si>
+  <si>
+    <t>Life expetancy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +109,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,7 +151,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -157,6 +174,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -643,7 +663,7 @@
                   <c:v>CLIMATE CHANGE - CANADA</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Life expectency</c:v>
+                  <c:v>Life expectancy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2328,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CF68490-9B77-4AF6-A373-7A0431AAF277}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2368,7 +2388,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -2383,7 +2403,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -2392,13 +2412,16 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A6:K6"/>
-    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A7:K7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2409,7 +2432,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2443,16 +2466,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2797,12 +2820,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916F0829-957A-428C-B0F8-276119A089DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="C4" s="2">
+        <v>17.41</v>
+      </c>
+      <c r="D4" s="2">
+        <v>79.13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>2018</v>
+      </c>
+      <c r="C5" s="2">
+        <v>15.56</v>
+      </c>
+      <c r="D5" s="2">
+        <v>81.94</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>